--- a/05 - Projects/Project 01/mesonet xlsx view.xlsx
+++ b/05 - Projects/Project 01/mesonet xlsx view.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive\Documents\Github\CS-2334\05 - Projects\Project 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F53770-5EB5-491D-9FC5-7B2E7C612CD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A5A7A-9B56-4641-89AA-8DB50E64F97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B867B53B-53BE-4CD0-919A-055D3B5DE54B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="27">
   <si>
     <t>C</t>
   </si>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E3A0A1-2F35-4C6D-9923-2C7CB739C7B0}">
-  <dimension ref="B2:M243"/>
+  <dimension ref="B2:O245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L12" sqref="L11:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,12 +594,12 @@
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -616,19 +616,36 @@
         <v>26</v>
       </c>
       <c r="J3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="4">
-        <f>COUNTIF(J6:J125, J3)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <f>COUNTIF(J6:J125, $J$3)</f>
+        <v>96</v>
+      </c>
+      <c r="L4" s="4">
+        <f>COUNTIF(L6:L125, $J$3)</f>
+        <v>96</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -641,8 +658,12 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f>COUNTIF(M6:M125, M6)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -675,15 +696,19 @@
         <f>SUM(F6:I6)</f>
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3</v>
       </c>
       <c r="M6" t="b">
-        <f>J6 = K6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <f>J6 = L6</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>COUNTA(M6:M125)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -716,15 +741,15 @@
         <f t="shared" ref="J7:J70" si="4">SUM(F7:I7)</f>
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4</v>
       </c>
       <c r="M7" t="b">
-        <f t="shared" ref="M7:M70" si="5">J7 = K7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M7:M70" si="5">J7 = L7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -757,7 +782,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>4</v>
       </c>
       <c r="M8" t="b">
@@ -765,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -798,7 +823,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4</v>
       </c>
       <c r="M9" t="b">
@@ -806,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -839,7 +864,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>4</v>
       </c>
       <c r="M10" t="b">
@@ -847,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -880,7 +905,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4</v>
       </c>
       <c r="M11" t="b">
@@ -888,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -921,7 +946,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3</v>
       </c>
       <c r="M12" t="b">
@@ -929,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -962,7 +987,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3</v>
       </c>
       <c r="M13" t="b">
@@ -970,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1003,7 +1028,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4</v>
       </c>
       <c r="M14" t="b">
@@ -1011,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +1069,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4</v>
       </c>
       <c r="M15" t="b">
@@ -1052,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1110,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4</v>
       </c>
       <c r="M16" t="b">
@@ -1126,7 +1151,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>4</v>
       </c>
       <c r="M17" t="b">
@@ -1167,7 +1192,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>4</v>
       </c>
       <c r="M18" t="b">
@@ -1208,7 +1233,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3</v>
       </c>
       <c r="M19" t="b">
@@ -1249,7 +1274,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3</v>
       </c>
       <c r="M20" t="b">
@@ -1290,7 +1315,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3</v>
       </c>
       <c r="M21" t="b">
@@ -1331,7 +1356,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4</v>
       </c>
       <c r="M22" t="b">
@@ -1372,7 +1397,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>4</v>
       </c>
       <c r="M23" t="b">
@@ -1413,7 +1438,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>3</v>
       </c>
       <c r="M24" t="b">
@@ -1454,7 +1479,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4</v>
       </c>
       <c r="M25" t="b">
@@ -1495,7 +1520,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4</v>
       </c>
       <c r="M26" t="b">
@@ -1536,7 +1561,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>3</v>
       </c>
       <c r="M27" t="b">
@@ -1577,7 +1602,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4</v>
       </c>
       <c r="M28" t="b">
@@ -1618,7 +1643,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>4</v>
       </c>
       <c r="M29" t="b">
@@ -1659,7 +1684,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>3</v>
       </c>
       <c r="M30" t="b">
@@ -1700,7 +1725,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>4</v>
       </c>
       <c r="M31" t="b">
@@ -1741,7 +1766,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>4</v>
       </c>
       <c r="M32" t="b">
@@ -1782,7 +1807,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>4</v>
       </c>
       <c r="M33" t="b">
@@ -1823,7 +1848,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>4</v>
       </c>
       <c r="M34" t="b">
@@ -1864,7 +1889,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>4</v>
       </c>
       <c r="M35" t="b">
@@ -1905,7 +1930,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>4</v>
       </c>
       <c r="M36" t="b">
@@ -1946,7 +1971,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>4</v>
       </c>
       <c r="M37" t="b">
@@ -1987,7 +2012,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>4</v>
       </c>
       <c r="M38" t="b">
@@ -2028,7 +2053,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>4</v>
       </c>
       <c r="M39" t="b">
@@ -2069,7 +2094,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>4</v>
       </c>
       <c r="M40" t="b">
@@ -2110,7 +2135,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>3</v>
       </c>
       <c r="M41" t="b">
@@ -2151,7 +2176,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4</v>
       </c>
       <c r="M42" t="b">
@@ -2192,7 +2217,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>4</v>
       </c>
       <c r="M43" t="b">
@@ -2233,7 +2258,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>4</v>
       </c>
       <c r="M44" t="b">
@@ -2274,7 +2299,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>4</v>
       </c>
       <c r="M45" t="b">
@@ -2315,7 +2340,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>4</v>
       </c>
       <c r="M46" t="b">
@@ -2356,7 +2381,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>3</v>
       </c>
       <c r="M47" t="b">
@@ -2397,7 +2422,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>4</v>
       </c>
       <c r="M48" t="b">
@@ -2438,7 +2463,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>4</v>
       </c>
       <c r="M49" t="b">
@@ -2479,7 +2504,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>3</v>
       </c>
       <c r="M50" t="b">
@@ -2520,7 +2545,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>4</v>
       </c>
       <c r="M51" t="b">
@@ -2561,7 +2586,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>4</v>
       </c>
       <c r="M52" t="b">
@@ -2602,7 +2627,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>4</v>
       </c>
       <c r="M53" t="b">
@@ -2643,7 +2668,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>4</v>
       </c>
       <c r="M54" t="b">
@@ -2684,7 +2709,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>4</v>
       </c>
       <c r="M55" t="b">
@@ -2725,7 +2750,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>4</v>
       </c>
       <c r="M56" t="b">
@@ -2766,7 +2791,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>4</v>
       </c>
       <c r="M57" t="b">
@@ -2807,7 +2832,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>4</v>
       </c>
       <c r="M58" t="b">
@@ -2848,7 +2873,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>4</v>
       </c>
       <c r="M59" t="b">
@@ -2889,7 +2914,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>4</v>
       </c>
       <c r="M60" t="b">
@@ -2930,7 +2955,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>4</v>
       </c>
       <c r="M61" t="b">
@@ -2971,7 +2996,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>4</v>
       </c>
       <c r="M62" t="b">
@@ -3012,7 +3037,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>4</v>
       </c>
       <c r="M63" t="b">
@@ -3053,7 +3078,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>4</v>
       </c>
       <c r="M64" t="b">
@@ -3094,7 +3119,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>4</v>
       </c>
       <c r="M65" t="b">
@@ -3135,7 +3160,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>4</v>
       </c>
       <c r="M66" t="b">
@@ -3176,7 +3201,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>4</v>
       </c>
       <c r="M67" t="b">
@@ -3217,7 +3242,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>4</v>
       </c>
       <c r="M68" t="b">
@@ -3258,7 +3283,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>4</v>
       </c>
       <c r="M69" t="b">
@@ -3299,7 +3324,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>4</v>
       </c>
       <c r="M70" t="b">
@@ -3340,11 +3365,11 @@
         <f t="shared" ref="J71:J125" si="10">SUM(F71:I71)</f>
         <v>4</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>4</v>
       </c>
       <c r="M71" t="b">
-        <f t="shared" ref="M71:M134" si="11">J71 = K71</f>
+        <f t="shared" ref="M71:M134" si="11">J71 = L71</f>
         <v>1</v>
       </c>
     </row>
@@ -3381,7 +3406,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>4</v>
       </c>
       <c r="M72" t="b">
@@ -3422,7 +3447,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>4</v>
       </c>
       <c r="M73" t="b">
@@ -3463,7 +3488,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>4</v>
       </c>
       <c r="M74" t="b">
@@ -3504,7 +3529,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>4</v>
       </c>
       <c r="M75" t="b">
@@ -3545,7 +3570,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>4</v>
       </c>
       <c r="M76" t="b">
@@ -3586,7 +3611,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>3</v>
       </c>
       <c r="M77" t="b">
@@ -3627,7 +3652,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>4</v>
       </c>
       <c r="M78" t="b">
@@ -3668,7 +3693,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>3</v>
       </c>
       <c r="M79" t="b">
@@ -3709,7 +3734,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>3</v>
       </c>
       <c r="M80" t="b">
@@ -3750,7 +3775,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>3</v>
       </c>
       <c r="M81" t="b">
@@ -3791,7 +3816,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>0</v>
       </c>
       <c r="M82" t="b">
@@ -3832,7 +3857,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>4</v>
       </c>
       <c r="M83" t="b">
@@ -3873,7 +3898,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>4</v>
       </c>
       <c r="M84" t="b">
@@ -3914,7 +3939,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>4</v>
       </c>
       <c r="M85" t="b">
@@ -3955,7 +3980,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>3</v>
       </c>
       <c r="M86" t="b">
@@ -3996,7 +4021,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>4</v>
       </c>
       <c r="M87" t="b">
@@ -4037,7 +4062,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>3</v>
       </c>
       <c r="M88" t="b">
@@ -4078,7 +4103,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>4</v>
       </c>
       <c r="M89" t="b">
@@ -4119,7 +4144,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>4</v>
       </c>
       <c r="M90" t="b">
@@ -4160,7 +4185,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>3</v>
       </c>
       <c r="M91" t="b">
@@ -4201,7 +4226,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>3</v>
       </c>
       <c r="M92" t="b">
@@ -4242,7 +4267,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>4</v>
       </c>
       <c r="M93" t="b">
@@ -4283,7 +4308,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>4</v>
       </c>
       <c r="M94" t="b">
@@ -4324,7 +4349,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>4</v>
       </c>
       <c r="M95" t="b">
@@ -4365,7 +4390,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>4</v>
       </c>
       <c r="M96" t="b">
@@ -4406,7 +4431,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>3</v>
       </c>
       <c r="M97" t="b">
@@ -4447,7 +4472,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>4</v>
       </c>
       <c r="M98" t="b">
@@ -4488,7 +4513,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>4</v>
       </c>
       <c r="M99" t="b">
@@ -4529,7 +4554,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>4</v>
       </c>
       <c r="M100" t="b">
@@ -4570,7 +4595,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>3</v>
       </c>
       <c r="M101" t="b">
@@ -4611,7 +4636,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>4</v>
       </c>
       <c r="M102" t="b">
@@ -4652,7 +4677,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>4</v>
       </c>
       <c r="M103" t="b">
@@ -4693,7 +4718,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>4</v>
       </c>
       <c r="M104" t="b">
@@ -4734,7 +4759,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>4</v>
       </c>
       <c r="M105" t="b">
@@ -4775,7 +4800,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>4</v>
       </c>
       <c r="M106" t="b">
@@ -4816,7 +4841,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>4</v>
       </c>
       <c r="M107" t="b">
@@ -4857,7 +4882,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>4</v>
       </c>
       <c r="M108" t="b">
@@ -4898,7 +4923,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>4</v>
       </c>
       <c r="M109" t="b">
@@ -4939,7 +4964,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>4</v>
       </c>
       <c r="M110" t="b">
@@ -4980,7 +5005,7 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>3</v>
       </c>
       <c r="M111" t="b">
@@ -5021,7 +5046,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>4</v>
       </c>
       <c r="M112" t="b">
@@ -5062,7 +5087,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>4</v>
       </c>
       <c r="M113" t="b">
@@ -5103,7 +5128,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>4</v>
       </c>
       <c r="M114" t="b">
@@ -5144,7 +5169,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>4</v>
       </c>
       <c r="M115" t="b">
@@ -5185,7 +5210,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>4</v>
       </c>
       <c r="M116" t="b">
@@ -5226,7 +5251,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>4</v>
       </c>
       <c r="M117" t="b">
@@ -5267,7 +5292,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>4</v>
       </c>
       <c r="M118" t="b">
@@ -5308,7 +5333,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>4</v>
       </c>
       <c r="M119" t="b">
@@ -5349,7 +5374,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>4</v>
       </c>
       <c r="M120" t="b">
@@ -5390,7 +5415,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>4</v>
       </c>
       <c r="M121" t="b">
@@ -5431,7 +5456,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>4</v>
       </c>
       <c r="M122" t="b">
@@ -5472,7 +5497,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>4</v>
       </c>
       <c r="M123" t="b">
@@ -5513,7 +5538,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>4</v>
       </c>
       <c r="M124" t="b">
@@ -5554,7 +5579,7 @@
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>4</v>
       </c>
       <c r="M125" t="b">
@@ -5563,7 +5588,7 @@
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K126">
+      <c r="L126">
         <v>3</v>
       </c>
       <c r="M126" t="b">
@@ -5572,7 +5597,7 @@
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K127">
+      <c r="L127">
         <v>4</v>
       </c>
       <c r="M127" t="b">
@@ -5581,7 +5606,7 @@
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K128">
+      <c r="L128">
         <v>4</v>
       </c>
       <c r="M128" t="b">
@@ -5589,8 +5614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K129">
+    <row r="129" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L129">
         <v>4</v>
       </c>
       <c r="M129" t="b">
@@ -5598,8 +5623,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K130">
+    <row r="130" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L130">
         <v>4</v>
       </c>
       <c r="M130" t="b">
@@ -5607,8 +5632,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K131">
+    <row r="131" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L131">
         <v>4</v>
       </c>
       <c r="M131" t="b">
@@ -5616,8 +5641,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K132">
+    <row r="132" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L132">
         <v>3</v>
       </c>
       <c r="M132" t="b">
@@ -5625,8 +5650,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K133">
+    <row r="133" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L133">
         <v>3</v>
       </c>
       <c r="M133" t="b">
@@ -5634,8 +5659,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K134">
+    <row r="134" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L134">
         <v>4</v>
       </c>
       <c r="M134" t="b">
@@ -5643,17 +5668,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K135">
+    <row r="135" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L135">
         <v>4</v>
       </c>
       <c r="M135" t="b">
-        <f t="shared" ref="M135:M198" si="12">J135 = K135</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K136">
+        <f t="shared" ref="M135:M198" si="12">J135 = L135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L136">
         <v>4</v>
       </c>
       <c r="M136" t="b">
@@ -5661,8 +5686,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K137">
+    <row r="137" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L137">
         <v>4</v>
       </c>
       <c r="M137" t="b">
@@ -5670,8 +5695,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K138">
+    <row r="138" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L138">
         <v>4</v>
       </c>
       <c r="M138" t="b">
@@ -5679,8 +5704,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K139">
+    <row r="139" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L139">
         <v>3</v>
       </c>
       <c r="M139" t="b">
@@ -5688,8 +5713,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K140">
+    <row r="140" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L140">
         <v>3</v>
       </c>
       <c r="M140" t="b">
@@ -5697,8 +5722,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K141">
+    <row r="141" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L141">
         <v>3</v>
       </c>
       <c r="M141" t="b">
@@ -5706,8 +5731,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K142">
+    <row r="142" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L142">
         <v>4</v>
       </c>
       <c r="M142" t="b">
@@ -5715,8 +5740,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K143">
+    <row r="143" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L143">
         <v>4</v>
       </c>
       <c r="M143" t="b">
@@ -5724,8 +5749,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K144">
+    <row r="144" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L144">
         <v>3</v>
       </c>
       <c r="M144" t="b">
@@ -5733,8 +5758,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K145">
+    <row r="145" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L145">
         <v>4</v>
       </c>
       <c r="M145" t="b">
@@ -5742,8 +5767,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K146">
+    <row r="146" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L146">
         <v>4</v>
       </c>
       <c r="M146" t="b">
@@ -5751,8 +5776,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K147">
+    <row r="147" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L147">
         <v>3</v>
       </c>
       <c r="M147" t="b">
@@ -5760,8 +5785,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K148">
+    <row r="148" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L148">
         <v>4</v>
       </c>
       <c r="M148" t="b">
@@ -5769,8 +5794,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K149">
+    <row r="149" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L149">
         <v>4</v>
       </c>
       <c r="M149" t="b">
@@ -5778,8 +5803,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K150">
+    <row r="150" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L150">
         <v>3</v>
       </c>
       <c r="M150" t="b">
@@ -5787,8 +5812,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K151">
+    <row r="151" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L151">
         <v>4</v>
       </c>
       <c r="M151" t="b">
@@ -5796,8 +5821,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K152">
+    <row r="152" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L152">
         <v>4</v>
       </c>
       <c r="M152" t="b">
@@ -5805,8 +5830,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K153">
+    <row r="153" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L153">
         <v>4</v>
       </c>
       <c r="M153" t="b">
@@ -5814,8 +5839,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K154">
+    <row r="154" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L154">
         <v>4</v>
       </c>
       <c r="M154" t="b">
@@ -5823,8 +5848,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K155">
+    <row r="155" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L155">
         <v>4</v>
       </c>
       <c r="M155" t="b">
@@ -5832,8 +5857,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K156">
+    <row r="156" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L156">
         <v>4</v>
       </c>
       <c r="M156" t="b">
@@ -5841,8 +5866,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K157">
+    <row r="157" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L157">
         <v>4</v>
       </c>
       <c r="M157" t="b">
@@ -5850,8 +5875,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K158">
+    <row r="158" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L158">
         <v>4</v>
       </c>
       <c r="M158" t="b">
@@ -5859,8 +5884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K159">
+    <row r="159" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L159">
         <v>4</v>
       </c>
       <c r="M159" t="b">
@@ -5868,8 +5893,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K160">
+    <row r="160" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L160">
         <v>4</v>
       </c>
       <c r="M160" t="b">
@@ -5877,8 +5902,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K161">
+    <row r="161" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L161">
         <v>3</v>
       </c>
       <c r="M161" t="b">
@@ -5886,8 +5911,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K162">
+    <row r="162" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L162">
         <v>4</v>
       </c>
       <c r="M162" t="b">
@@ -5895,8 +5920,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K163">
+    <row r="163" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L163">
         <v>4</v>
       </c>
       <c r="M163" t="b">
@@ -5904,8 +5929,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K164">
+    <row r="164" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L164">
         <v>4</v>
       </c>
       <c r="M164" t="b">
@@ -5913,8 +5938,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K165">
+    <row r="165" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L165">
         <v>4</v>
       </c>
       <c r="M165" t="b">
@@ -5922,8 +5947,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K166">
+    <row r="166" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L166">
         <v>4</v>
       </c>
       <c r="M166" t="b">
@@ -5931,8 +5956,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K167">
+    <row r="167" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L167">
         <v>3</v>
       </c>
       <c r="M167" t="b">
@@ -5940,8 +5965,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K168">
+    <row r="168" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L168">
         <v>4</v>
       </c>
       <c r="M168" t="b">
@@ -5949,8 +5974,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K169">
+    <row r="169" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L169">
         <v>4</v>
       </c>
       <c r="M169" t="b">
@@ -5958,8 +5983,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K170">
+    <row r="170" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L170">
         <v>3</v>
       </c>
       <c r="M170" t="b">
@@ -5967,8 +5992,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K171">
+    <row r="171" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L171">
         <v>4</v>
       </c>
       <c r="M171" t="b">
@@ -5976,8 +6001,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K172">
+    <row r="172" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L172">
         <v>4</v>
       </c>
       <c r="M172" t="b">
@@ -5985,8 +6010,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K173">
+    <row r="173" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L173">
         <v>4</v>
       </c>
       <c r="M173" t="b">
@@ -5994,8 +6019,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K174">
+    <row r="174" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L174">
         <v>4</v>
       </c>
       <c r="M174" t="b">
@@ -6003,8 +6028,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K175">
+    <row r="175" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L175">
         <v>4</v>
       </c>
       <c r="M175" t="b">
@@ -6012,8 +6037,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K176">
+    <row r="176" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L176">
         <v>4</v>
       </c>
       <c r="M176" t="b">
@@ -6021,8 +6046,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K177">
+    <row r="177" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L177">
         <v>4</v>
       </c>
       <c r="M177" t="b">
@@ -6030,8 +6055,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K178">
+    <row r="178" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L178">
         <v>4</v>
       </c>
       <c r="M178" t="b">
@@ -6039,8 +6064,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K179">
+    <row r="179" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L179">
         <v>4</v>
       </c>
       <c r="M179" t="b">
@@ -6048,8 +6073,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K180">
+    <row r="180" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L180">
         <v>4</v>
       </c>
       <c r="M180" t="b">
@@ -6057,8 +6082,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K181">
+    <row r="181" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L181">
         <v>4</v>
       </c>
       <c r="M181" t="b">
@@ -6066,8 +6091,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K182">
+    <row r="182" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L182">
         <v>4</v>
       </c>
       <c r="M182" t="b">
@@ -6075,8 +6100,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K183">
+    <row r="183" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L183">
         <v>4</v>
       </c>
       <c r="M183" t="b">
@@ -6084,8 +6109,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K184">
+    <row r="184" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L184">
         <v>4</v>
       </c>
       <c r="M184" t="b">
@@ -6093,8 +6118,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K185">
+    <row r="185" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L185">
         <v>4</v>
       </c>
       <c r="M185" t="b">
@@ -6102,8 +6127,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K186">
+    <row r="186" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L186">
         <v>4</v>
       </c>
       <c r="M186" t="b">
@@ -6111,8 +6136,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K187">
+    <row r="187" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L187">
         <v>4</v>
       </c>
       <c r="M187" t="b">
@@ -6120,8 +6145,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K188">
+    <row r="188" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L188">
         <v>4</v>
       </c>
       <c r="M188" t="b">
@@ -6129,8 +6154,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K189">
+    <row r="189" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L189">
         <v>4</v>
       </c>
       <c r="M189" t="b">
@@ -6138,8 +6163,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K190">
+    <row r="190" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L190">
         <v>4</v>
       </c>
       <c r="M190" t="b">
@@ -6147,8 +6172,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K191">
+    <row r="191" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L191">
         <v>4</v>
       </c>
       <c r="M191" t="b">
@@ -6156,8 +6181,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K192">
+    <row r="192" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L192">
         <v>4</v>
       </c>
       <c r="M192" t="b">
@@ -6165,8 +6190,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K193">
+    <row r="193" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L193">
         <v>4</v>
       </c>
       <c r="M193" t="b">
@@ -6174,8 +6199,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K194">
+    <row r="194" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L194">
         <v>4</v>
       </c>
       <c r="M194" t="b">
@@ -6183,8 +6208,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K195">
+    <row r="195" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L195">
         <v>4</v>
       </c>
       <c r="M195" t="b">
@@ -6192,8 +6217,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K196">
+    <row r="196" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L196">
         <v>4</v>
       </c>
       <c r="M196" t="b">
@@ -6201,8 +6226,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K197">
+    <row r="197" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L197">
         <v>3</v>
       </c>
       <c r="M197" t="b">
@@ -6210,8 +6235,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K198">
+    <row r="198" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L198">
         <v>4</v>
       </c>
       <c r="M198" t="b">
@@ -6219,17 +6244,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K199">
+    <row r="199" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L199">
         <v>3</v>
       </c>
       <c r="M199" t="b">
-        <f t="shared" ref="M199:M243" si="13">J199 = K199</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K200">
+        <f t="shared" ref="M199:M243" si="13">J199 = L199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L200">
         <v>3</v>
       </c>
       <c r="M200" t="b">
@@ -6237,8 +6262,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K201">
+    <row r="201" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L201">
         <v>3</v>
       </c>
       <c r="M201" t="b">
@@ -6246,8 +6271,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K202">
+    <row r="202" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L202">
         <v>0</v>
       </c>
       <c r="M202" t="b">
@@ -6255,8 +6280,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K203">
+    <row r="203" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L203">
         <v>4</v>
       </c>
       <c r="M203" t="b">
@@ -6264,8 +6289,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K204">
+    <row r="204" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L204">
         <v>4</v>
       </c>
       <c r="M204" t="b">
@@ -6273,8 +6298,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K205">
+    <row r="205" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L205">
         <v>4</v>
       </c>
       <c r="M205" t="b">
@@ -6282,8 +6307,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K206">
+    <row r="206" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L206">
         <v>3</v>
       </c>
       <c r="M206" t="b">
@@ -6291,8 +6316,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K207">
+    <row r="207" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L207">
         <v>4</v>
       </c>
       <c r="M207" t="b">
@@ -6300,8 +6325,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K208">
+    <row r="208" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L208">
         <v>3</v>
       </c>
       <c r="M208" t="b">
@@ -6309,8 +6334,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K209">
+    <row r="209" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L209">
         <v>4</v>
       </c>
       <c r="M209" t="b">
@@ -6318,8 +6343,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K210">
+    <row r="210" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L210">
         <v>4</v>
       </c>
       <c r="M210" t="b">
@@ -6327,8 +6352,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K211">
+    <row r="211" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L211">
         <v>3</v>
       </c>
       <c r="M211" t="b">
@@ -6336,8 +6361,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K212">
+    <row r="212" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L212">
         <v>3</v>
       </c>
       <c r="M212" t="b">
@@ -6345,8 +6370,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K213">
+    <row r="213" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L213">
         <v>4</v>
       </c>
       <c r="M213" t="b">
@@ -6354,8 +6379,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K214">
+    <row r="214" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L214">
         <v>4</v>
       </c>
       <c r="M214" t="b">
@@ -6363,8 +6388,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K215">
+    <row r="215" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L215">
         <v>4</v>
       </c>
       <c r="M215" t="b">
@@ -6372,8 +6397,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K216">
+    <row r="216" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L216">
         <v>4</v>
       </c>
       <c r="M216" t="b">
@@ -6381,8 +6406,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K217">
+    <row r="217" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L217">
         <v>3</v>
       </c>
       <c r="M217" t="b">
@@ -6390,8 +6415,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K218">
+    <row r="218" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L218">
         <v>4</v>
       </c>
       <c r="M218" t="b">
@@ -6399,8 +6424,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K219">
+    <row r="219" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L219">
         <v>4</v>
       </c>
       <c r="M219" t="b">
@@ -6408,8 +6433,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K220">
+    <row r="220" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L220">
         <v>4</v>
       </c>
       <c r="M220" t="b">
@@ -6417,8 +6442,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K221">
+    <row r="221" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L221">
         <v>3</v>
       </c>
       <c r="M221" t="b">
@@ -6426,8 +6451,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K222">
+    <row r="222" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L222">
         <v>4</v>
       </c>
       <c r="M222" t="b">
@@ -6435,8 +6460,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K223">
+    <row r="223" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L223">
         <v>4</v>
       </c>
       <c r="M223" t="b">
@@ -6444,8 +6469,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K224">
+    <row r="224" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L224">
         <v>4</v>
       </c>
       <c r="M224" t="b">
@@ -6453,8 +6478,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K225">
+    <row r="225" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L225">
         <v>4</v>
       </c>
       <c r="M225" t="b">
@@ -6462,8 +6487,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K226">
+    <row r="226" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L226">
         <v>4</v>
       </c>
       <c r="M226" t="b">
@@ -6471,8 +6496,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K227">
+    <row r="227" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L227">
         <v>4</v>
       </c>
       <c r="M227" t="b">
@@ -6480,8 +6505,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K228">
+    <row r="228" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L228">
         <v>4</v>
       </c>
       <c r="M228" t="b">
@@ -6489,8 +6514,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K229">
+    <row r="229" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L229">
         <v>4</v>
       </c>
       <c r="M229" t="b">
@@ -6498,8 +6523,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K230">
+    <row r="230" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L230">
         <v>4</v>
       </c>
       <c r="M230" t="b">
@@ -6507,8 +6532,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K231">
+    <row r="231" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L231">
         <v>3</v>
       </c>
       <c r="M231" t="b">
@@ -6516,8 +6541,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K232">
+    <row r="232" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L232">
         <v>4</v>
       </c>
       <c r="M232" t="b">
@@ -6525,8 +6550,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K233">
+    <row r="233" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L233">
         <v>4</v>
       </c>
       <c r="M233" t="b">
@@ -6534,8 +6559,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K234">
+    <row r="234" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L234">
         <v>4</v>
       </c>
       <c r="M234" t="b">
@@ -6543,8 +6568,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K235">
+    <row r="235" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L235">
         <v>4</v>
       </c>
       <c r="M235" t="b">
@@ -6552,8 +6577,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K236">
+    <row r="236" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L236">
         <v>4</v>
       </c>
       <c r="M236" t="b">
@@ -6561,8 +6586,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K237">
+    <row r="237" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L237">
         <v>4</v>
       </c>
       <c r="M237" t="b">
@@ -6570,8 +6595,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K238">
+    <row r="238" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L238">
         <v>4</v>
       </c>
       <c r="M238" t="b">
@@ -6579,8 +6604,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K239">
+    <row r="239" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L239">
         <v>4</v>
       </c>
       <c r="M239" t="b">
@@ -6588,8 +6613,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K240">
+    <row r="240" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L240">
         <v>4</v>
       </c>
       <c r="M240" t="b">
@@ -6597,8 +6622,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K241">
+    <row r="241" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L241">
         <v>4</v>
       </c>
       <c r="M241" t="b">
@@ -6606,8 +6631,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K242">
+    <row r="242" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L242">
         <v>4</v>
       </c>
       <c r="M242" t="b">
@@ -6615,13 +6640,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K243">
+    <row r="243" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L243">
         <v>4</v>
       </c>
       <c r="M243" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L245">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/05 - Projects/Project 01/mesonet xlsx view.xlsx
+++ b/05 - Projects/Project 01/mesonet xlsx view.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive\Documents\Github\CS-2334\05 - Projects\Project 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB576DE1-CB01-4029-A782-018D0AB1ED4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EAEF48-4501-45D0-AA9B-F71096F6337D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B867B53B-53BE-4CD0-919A-055D3B5DE54B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B867B53B-53BE-4CD0-919A-055D3B5DE54B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,9 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E3A0A1-2F35-4C6D-9923-2C7CB739C7B0}">
   <dimension ref="B2:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -608,22 +606,22 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -632,7 +630,7 @@
       </c>
       <c r="J4" s="4">
         <f>COUNTIF(J6:J125, $J$3)</f>
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -672,7 +670,7 @@
       </c>
       <c r="H6" s="6">
         <f>IF(D$3 &lt;&gt; D6, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="6">
         <f>IF(E$3 &lt;&gt; E6, 1, 0)</f>
@@ -680,7 +678,7 @@
       </c>
       <c r="J6" s="5">
         <f>SUM(F6:I6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -872,7 +870,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
@@ -884,7 +882,7 @@
       </c>
       <c r="J12" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -906,7 +904,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="2"/>
@@ -918,7 +916,7 @@
       </c>
       <c r="J13" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -940,7 +938,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="2"/>
@@ -952,7 +950,7 @@
       </c>
       <c r="J14" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -974,7 +972,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="2"/>
@@ -986,7 +984,7 @@
       </c>
       <c r="J15" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1110,7 +1108,7 @@
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="2"/>
@@ -1122,7 +1120,7 @@
       </c>
       <c r="J19" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1144,7 +1142,7 @@
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="2"/>
@@ -1156,7 +1154,7 @@
       </c>
       <c r="J20" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1178,7 +1176,7 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="2"/>
@@ -1190,7 +1188,7 @@
       </c>
       <c r="J21" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1288,11 +1286,11 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1356,11 +1354,11 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1386,7 +1384,7 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="3"/>
@@ -1394,7 +1392,7 @@
       </c>
       <c r="J27" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1450,7 +1448,7 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="2"/>
@@ -1462,7 +1460,7 @@
       </c>
       <c r="J29" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1492,11 +1490,11 @@
       </c>
       <c r="I30" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -1526,11 +1524,11 @@
       </c>
       <c r="I31" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1858,7 +1856,7 @@
       </c>
       <c r="G41" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" si="2"/>
@@ -1870,7 +1868,7 @@
       </c>
       <c r="J41" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -1968,11 +1966,11 @@
       </c>
       <c r="I44" s="6">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -2062,7 +2060,7 @@
       </c>
       <c r="G47" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" si="2"/>
@@ -2074,7 +2072,7 @@
       </c>
       <c r="J47" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -2164,7 +2162,7 @@
       </c>
       <c r="G50" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="2"/>
@@ -2176,7 +2174,7 @@
       </c>
       <c r="J50" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -2266,7 +2264,7 @@
       </c>
       <c r="G53" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="2"/>
@@ -2278,7 +2276,7 @@
       </c>
       <c r="J53" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -2338,7 +2336,7 @@
       </c>
       <c r="H55" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="3"/>
@@ -2346,7 +2344,7 @@
       </c>
       <c r="J55" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -2606,7 +2604,7 @@
       </c>
       <c r="G63" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="6">
         <f t="shared" si="2"/>
@@ -2618,7 +2616,7 @@
       </c>
       <c r="J63" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -2640,7 +2638,7 @@
       </c>
       <c r="G64" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="6">
         <f t="shared" si="2"/>
@@ -2652,7 +2650,7 @@
       </c>
       <c r="J64" s="5">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -2886,11 +2884,11 @@
       </c>
       <c r="I71" s="6">
         <f t="shared" ref="I71:I125" si="8">IF(E$3 &lt;&gt; E71, 1, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="5">
         <f t="shared" ref="J71:J125" si="9">SUM(F71:I71)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -2946,7 +2944,7 @@
       </c>
       <c r="G73" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="6">
         <f t="shared" si="7"/>
@@ -2958,7 +2956,7 @@
       </c>
       <c r="J73" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -2980,7 +2978,7 @@
       </c>
       <c r="G74" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" s="6">
         <f t="shared" si="7"/>
@@ -2992,7 +2990,7 @@
       </c>
       <c r="J74" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -3082,7 +3080,7 @@
       </c>
       <c r="G77" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="6">
         <f t="shared" si="7"/>
@@ -3094,7 +3092,7 @@
       </c>
       <c r="J77" s="5">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -3146,11 +3144,11 @@
       </c>
       <c r="F79" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" s="6">
         <f t="shared" si="7"/>
@@ -3180,11 +3178,11 @@
       </c>
       <c r="F80" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" s="6">
         <f t="shared" si="7"/>
@@ -3214,7 +3212,7 @@
       </c>
       <c r="F81" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="6">
         <f t="shared" si="6"/>
@@ -3230,7 +3228,7 @@
       </c>
       <c r="J81" s="5">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -3248,23 +3246,23 @@
       </c>
       <c r="F82" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -3392,7 +3390,7 @@
       </c>
       <c r="H86" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="6">
         <f t="shared" si="8"/>
@@ -3400,7 +3398,7 @@
       </c>
       <c r="J86" s="5">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -3464,11 +3462,11 @@
       </c>
       <c r="I88" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" s="5">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -3490,7 +3488,7 @@
       </c>
       <c r="G89" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="6">
         <f t="shared" si="7"/>
@@ -3502,7 +3500,7 @@
       </c>
       <c r="J89" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -3558,7 +3556,7 @@
       </c>
       <c r="G91" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" s="6">
         <f t="shared" si="7"/>
@@ -3570,7 +3568,7 @@
       </c>
       <c r="J91" s="5">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -3600,11 +3598,11 @@
       </c>
       <c r="I92" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="5">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -3626,7 +3624,7 @@
       </c>
       <c r="G93" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="6">
         <f t="shared" si="7"/>
@@ -3634,11 +3632,11 @@
       </c>
       <c r="I93" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -3728,7 +3726,7 @@
       </c>
       <c r="G96" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="6">
         <f t="shared" si="7"/>
@@ -3740,7 +3738,7 @@
       </c>
       <c r="J96" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -3762,11 +3760,11 @@
       </c>
       <c r="G97" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" s="6">
         <f t="shared" si="8"/>
@@ -3906,11 +3904,11 @@
       </c>
       <c r="I101" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="5">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -4246,11 +4244,11 @@
       </c>
       <c r="I111" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" s="5">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -4336,7 +4334,7 @@
       </c>
       <c r="F114" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="6">
         <f t="shared" si="6"/>
@@ -4352,7 +4350,7 @@
       </c>
       <c r="J114" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
@@ -4370,7 +4368,7 @@
       </c>
       <c r="F115" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="6">
         <f t="shared" si="6"/>
@@ -4386,7 +4384,7 @@
       </c>
       <c r="J115" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
@@ -4404,7 +4402,7 @@
       </c>
       <c r="F116" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" si="6"/>
@@ -4420,7 +4418,7 @@
       </c>
       <c r="J116" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
@@ -4438,7 +4436,7 @@
       </c>
       <c r="F117" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="6"/>
@@ -4450,11 +4448,11 @@
       </c>
       <c r="I117" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
@@ -4472,11 +4470,11 @@
       </c>
       <c r="F118" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="6">
         <f t="shared" si="7"/>
@@ -4488,7 +4486,7 @@
       </c>
       <c r="J118" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
@@ -4506,23 +4504,23 @@
       </c>
       <c r="F119" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
@@ -4540,11 +4538,11 @@
       </c>
       <c r="F120" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="6">
         <f t="shared" si="7"/>
@@ -4556,7 +4554,7 @@
       </c>
       <c r="J120" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
@@ -4574,7 +4572,7 @@
       </c>
       <c r="F121" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" s="6">
         <f t="shared" si="6"/>
@@ -4590,7 +4588,7 @@
       </c>
       <c r="J121" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
@@ -4608,7 +4606,7 @@
       </c>
       <c r="F122" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" s="6">
         <f t="shared" si="6"/>
@@ -4624,7 +4622,7 @@
       </c>
       <c r="J122" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
@@ -4642,7 +4640,7 @@
       </c>
       <c r="F123" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" si="6"/>
@@ -4658,7 +4656,7 @@
       </c>
       <c r="J123" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
@@ -4676,7 +4674,7 @@
       </c>
       <c r="F124" s="6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" s="6">
         <f t="shared" si="6"/>
@@ -4692,7 +4690,7 @@
       </c>
       <c r="J124" s="5">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
